--- a/final_session_INF1093_ETE_2024_template.xlsx
+++ b/final_session_INF1093_ETE_2024_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ideapad\OneDrive\Documents\github2\inf1093_300133876\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/aodia23_ulaval_ca/Documents/Bureau/test/fin_session/PROG1094_300141452/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D794C1B-B1FD-43D0-AC3E-260A73E4A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{5D794C1B-B1FD-43D0-AC3E-260A73E4A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057DB6B2-3950-4CAC-B206-CFAFCCAB4961}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{362B427D-9B06-46E3-8CEB-A950A0F32B0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{362B427D-9B06-46E3-8CEB-A950A0F32B0A}"/>
   </bookViews>
   <sheets>
     <sheet name="exercice1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
   <si>
     <t>Viny, 34</t>
   </si>
@@ -80,12 +80,27 @@
   <si>
     <t>Phase</t>
   </si>
+  <si>
+    <t>Tity,31</t>
+  </si>
+  <si>
+    <t>Antony,27</t>
+  </si>
+  <si>
+    <t>calvin,39</t>
+  </si>
+  <si>
+    <t>lilian,27</t>
+  </si>
+  <si>
+    <t>Viny,34</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +112,34 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -235,26 +278,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,10 +318,867 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur : en arc 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150F7AC3-C724-72B9-D629-FD57242E101E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="1362075"/>
+          <a:ext cx="3714750" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49487"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connecteur : en arc 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A087FE2-6511-40B3-B1DB-34FDEDF189D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1790700" y="1724025"/>
+          <a:ext cx="3962400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BA4FC4-DB7C-9BCA-1270-D38411CF5E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="57150"/>
+          <a:ext cx="5600700" cy="3943350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>au</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> commencement </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Le pivot est le couple</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(rachy,25</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>), il est en dernière position.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i colore en</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> vert </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>et curseur sont initialisés à la position 0 colore en </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bleu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Le couple (Viny, 34)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lu est strictement supérieur au pivot. On ne fait pas d'échange.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i augmente de 1.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>curseur n'est pas modifié. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> meme que l'etape 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3-  meme que l'etape 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>meme que l'etape 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> meme que l'etape 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Le  couple (Merlin, 19) lu est inférieur ou égal au pivot : on l'échange avec le couple (Viny, 34)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>situé à la position du curseur.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i augmente de 1.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>curseur augmente de 1. et devient le couple (Ryan, 43)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7-  5-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> meme que l'etape 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8-En fin de parcours, curseur vaut le couple (Ryan, 43)  et est égal à la position définitive du pivot.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>On échange le pivot (rachy,25), et le (Ryan, 43)</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Le pivot est à sa position définitive</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> car :</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>À sa gauche on ne trouve que des valeurs qui lui sont inférieures ou égales. À sa droite que des valeurs strictement supérieures.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +1216,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +1322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +1464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,75 +1472,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DBF927-EFBF-4E55-9B2D-F39ECDB68CF8}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -645,13 +1756,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298DD1A2-0B7C-401B-8BDA-2DEE3C92F73C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -677,52 +1788,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="F5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="8" t="s">
         <v>10</v>
@@ -730,10 +1841,10 @@
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -743,62 +1854,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>0</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="11">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="10">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>2</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>2</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>3</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>3</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="12">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
         <v>4</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>4</v>
       </c>
       <c r="G11" s="6"/>

--- a/final_session_INF1093_ETE_2024_template.xlsx
+++ b/final_session_INF1093_ETE_2024_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/aodia23_ulaval_ca/Documents/Bureau/test/fin_session/PROG1094_300141452/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{5D794C1B-B1FD-43D0-AC3E-260A73E4A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057DB6B2-3950-4CAC-B206-CFAFCCAB4961}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{5D794C1B-B1FD-43D0-AC3E-260A73E4A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D463AA84-79C1-4E27-A448-5ED38BFCA25F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{362B427D-9B06-46E3-8CEB-A950A0F32B0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{362B427D-9B06-46E3-8CEB-A950A0F32B0A}"/>
   </bookViews>
   <sheets>
     <sheet name="exercice1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
   <si>
     <t>Viny, 34</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Viny,34</t>
+  </si>
+  <si>
+    <t>on sarrete le millier est egale au nombre</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -284,6 +287,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,11 +303,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,6 +1175,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1474,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DBF927-EFBF-4E55-9B2D-F39ECDB68CF8}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1515,7 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1538,7 +1544,7 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1567,7 +1573,7 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1596,7 +1602,7 @@
       <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1625,7 +1631,7 @@
       <c r="H5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1654,7 +1660,7 @@
       <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1662,7 +1668,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
@@ -1680,10 +1686,10 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1691,10 +1697,10 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
@@ -1712,7 +1718,7 @@
       <c r="H9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1720,10 +1726,10 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -1741,7 +1747,7 @@
       <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1756,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298DD1A2-0B7C-401B-8BDA-2DEE3C92F73C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,16 +1828,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="F5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1859,31 +1865,49 @@
       <c r="B7" s="9">
         <v>0</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
       <c r="F7" s="9">
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="F9" s="9">
         <v>2</v>

--- a/final_session_INF1093_ETE_2024_template.xlsx
+++ b/final_session_INF1093_ETE_2024_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/aodia23_ulaval_ca/Documents/Bureau/test/fin_session/PROG1094_300141452/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{5D794C1B-B1FD-43D0-AC3E-260A73E4A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D463AA84-79C1-4E27-A448-5ED38BFCA25F}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{5D794C1B-B1FD-43D0-AC3E-260A73E4A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B16A369-3A1F-41D1-B3D7-0C04DC47D59F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{362B427D-9B06-46E3-8CEB-A950A0F32B0A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="22">
   <si>
     <t>Viny, 34</t>
   </si>
@@ -96,7 +96,13 @@
     <t>Viny,34</t>
   </si>
   <si>
-    <t>on sarrete le millier est egale au nombre</t>
+    <t>on arrete car millier est egale au nombre</t>
+  </si>
+  <si>
+    <t>est dans le cas on a debut 7 fin 7 et millieux 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qui est egale au nombre recherche </t>
   </si>
 </sst>
 </file>
@@ -1760,15 +1766,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298DD1A2-0B7C-401B-8BDA-2DEE3C92F73C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1820,13 +1826,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="17" t="s">
         <v>8</v>
@@ -1839,7 +1845,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="8" t="s">
         <v>10</v>
@@ -1860,7 +1866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="9">
         <v>0</v>
@@ -1881,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>1</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>2</v>
       </c>
@@ -1912,10 +1918,14 @@
       <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>3</v>
       </c>
@@ -1924,10 +1934,14 @@
       <c r="F10" s="9">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>4</v>
       </c>
@@ -1936,8 +1950,20 @@
       <c r="F11" s="11">
         <v>4</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="6">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
